--- a/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Elemento</t>
   </si>
@@ -167,6 +167,30 @@
   </si>
   <si>
     <t>Estado del proceso judicial</t>
+  </si>
+  <si>
+    <t>Proceso Judicial No. 20332-2021-00141</t>
+  </si>
+  <si>
+    <t>Tenencia y maltrato de Fauna Silvestre (247 COIP)</t>
+  </si>
+  <si>
+    <t>Con fecha 28 de marzo de 2021 Director de PNG recibe llamada de guardaparque Tobias Robalino quien se encontraba en el aeropuerto de Baltra y avisa sobre el hallazgo de 185 tortugas terrestres en maleta color rojo. Se presenta denuncia el mismo día en Fiscalía por parte de PNG.</t>
+  </si>
+  <si>
+    <t>NIXON POLO DELGADO</t>
+  </si>
+  <si>
+    <t>SENTENCIA CONDENATORIA EJECUTORIADA</t>
+  </si>
+  <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>Evento</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +230,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -277,6 +313,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,7 +741,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,8 +804,19 @@
       <c r="D2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
@@ -781,9 +831,15 @@
       <c r="D3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
@@ -798,8 +854,17 @@
       <c r="D4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
@@ -814,8 +879,17 @@
       <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
@@ -830,8 +904,17 @@
       <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>

--- a/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
   <si>
     <t>Elemento</t>
   </si>
@@ -76,12 +76,6 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
-    <t>Relaciones</t>
-  </si>
-  <si>
-    <t>Reglas de Calidad</t>
-  </si>
-  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -184,13 +178,10 @@
     <t>SENTENCIA CONDENATORIA EJECUTORIADA</t>
   </si>
   <si>
-    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
-  </si>
-  <si>
     <t>Identificación</t>
   </si>
   <si>
-    <t>Evento</t>
+    <t>Clasificación interna PNG</t>
   </si>
 </sst>
 </file>
@@ -220,7 +211,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,18 +221,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -313,9 +292,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,58 +653,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -738,10 +714,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,15 +727,13 @@
     <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="9"/>
+    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -784,405 +758,351 @@
       <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="E2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="C5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="11" t="s">
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="G6" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-    </row>
-    <row r="30" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-    </row>
-    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-    </row>
-    <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-    </row>
-    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-    </row>
-    <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-    </row>
-    <row r="39" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-    </row>
-    <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-    </row>
-    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-    </row>
-    <row r="44" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-    </row>
-    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -1191,8 +1111,6 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
+++ b/04_Entregable 2/previo/metadatos y diccionario_14.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAG\personal\consultorías\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angleito\Documents\Consultorías\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="55">
   <si>
     <t>Elemento</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Fuente de Datos</t>
   </si>
   <si>
+    <t>Relaciones</t>
+  </si>
+  <si>
+    <t>Reglas de Calidad</t>
+  </si>
+  <si>
     <t>Clasificación</t>
   </si>
   <si>
@@ -178,10 +184,13 @@
     <t>SENTENCIA CONDENATORIA EJECUTORIADA</t>
   </si>
   <si>
+    <t>Las variables de identificación deben cumplir con una extensión y combinación de caracteres específicos</t>
+  </si>
+  <si>
     <t>Identificación</t>
   </si>
   <si>
-    <t>Clasificación interna PNG</t>
+    <t>Evento</t>
   </si>
 </sst>
 </file>
@@ -211,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +230,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -292,6 +313,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,58 +677,58 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -714,10 +738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,13 +751,15 @@
     <col min="3" max="3" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="9"/>
+    <col min="6" max="6" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -758,351 +784,405 @@
       <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+    </row>
+    <row r="25" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+    </row>
+    <row r="27" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="10"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:5" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="2:6" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-    </row>
-    <row r="34" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+    </row>
+    <row r="35" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-    </row>
-    <row r="36" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+    </row>
+    <row r="37" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-    </row>
-    <row r="38" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-    </row>
-    <row r="39" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="9"/>
+    </row>
+    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="9"/>
+    </row>
+    <row r="42" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="9"/>
+    </row>
+    <row r="43" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="9"/>
+    </row>
+    <row r="44" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="9"/>
+    </row>
+    <row r="45" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="11"/>
       <c r="C46" s="8"/>
@@ -1111,6 +1191,8 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
